--- a/data/long_bre/P51_N-Urba-long_bre.xlsx
+++ b/data/long_bre/P51_N-Urba-long_bre.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -686,7 +686,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -764,7 +764,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -846,7 +846,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -924,7 +924,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1002,7 +1002,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1160,7 +1160,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1238,7 +1238,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1398,7 +1398,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1476,7 +1476,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
